--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VnZnX\Desktop\Info\P4_Galpin_Vincent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10029CA5-B690-4712-8F78-73A16B5C9907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32DC0D-E628-482E-88D2-A5852EC56073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -254,13 +251,46 @@
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/ARIA/ARIA_Techniques/Using_the_aria-label_attribute</t>
+  </si>
+  <si>
+    <t>Amélioration pour la suite</t>
+  </si>
+  <si>
+    <t>Google analytics</t>
+  </si>
+  <si>
+    <t>https://semji.com/fr/guide/google-search-console-outil-indispensable-seo/</t>
+  </si>
+  <si>
+    <t>permet d'analyser la fréquentation du site ainsi que les erreurs que le robot rencontre et améliore le SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mailto </t>
+  </si>
+  <si>
+    <t>Mettre un mailto sur le mail de contact pour les personnes qui prefere contacter via le mail fourni directement</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/a#cr%C3%A9er_un_lien_avec_une_adresse_%C3%A9lectronique</t>
+  </si>
+  <si>
+    <t>Réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Mettre les liens vers vos réseaux sociaux respectifs afin de donner de la visibilité</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Au clic de l'internaute sur l'adresse de l'entreprise ouvre google map à la bonne adresse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,11 +307,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -305,8 +330,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,8 +359,13 @@
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,38 +380,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -584,21 +705,21 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,289 +759,363 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="16"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="10"/>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="7"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1890,27 +2085,38 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1" xr:uid="{9DC2CAE4-483B-43F2-94CF-33484D6F5D70}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{889EC599-03F7-486B-9B25-63894BCC6234}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{9DF2B044-9BAB-4A21-811C-B1BB42CB7A14}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{F895E360-3A56-4663-8875-F8D280ECA534}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{0E649F7C-4294-4961-ABA6-934176569428}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{465ABFC7-4796-4D1D-98BE-AB4C9187CCFC}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{EE9333A1-C457-4256-AC1A-E9447C3CFEDA}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{890970E2-6968-46C8-B456-A7AA090B93BA}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{AA7057EC-0E76-492C-B19E-CD4A6808FB27}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{523BFF99-C87F-44A4-A010-5312693C887A}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{52973236-36CA-4D97-AC83-A8F621C26D75}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{AEE9709B-24AA-4C23-B2DC-4C502E5D1B5A}"/>
-    <hyperlink ref="F19" r:id="rId13" xr:uid="{BA75C060-509A-413A-B248-E2454E726CD9}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{9DC2CAE4-483B-43F2-94CF-33484D6F5D70}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{889EC599-03F7-486B-9B25-63894BCC6234}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{9DF2B044-9BAB-4A21-811C-B1BB42CB7A14}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{F895E360-3A56-4663-8875-F8D280ECA534}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{0E649F7C-4294-4961-ABA6-934176569428}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{465ABFC7-4796-4D1D-98BE-AB4C9187CCFC}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{EE9333A1-C457-4256-AC1A-E9447C3CFEDA}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{890970E2-6968-46C8-B456-A7AA090B93BA}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{AA7057EC-0E76-492C-B19E-CD4A6808FB27}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{523BFF99-C87F-44A4-A010-5312693C887A}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{52973236-36CA-4D97-AC83-A8F621C26D75}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{AEE9709B-24AA-4C23-B2DC-4C502E5D1B5A}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{BA75C060-509A-413A-B248-E2454E726CD9}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{719BD7BF-D2F8-4D58-A319-26855C3A3F58}"/>
+    <hyperlink ref="F23" r:id="rId15" location="cr%C3%A9er_un_lien_avec_une_adresse_%C3%A9lectronique" xr:uid="{62CCAFD2-EDC0-446D-9B2B-DDE61F25C012}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId14"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VnZnX\Desktop\Info\P4_Galpin_Vincent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32DC0D-E628-482E-88D2-A5852EC56073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06934863-15A9-47DD-A367-23B315BAF93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Catégorie</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>Au clic de l'internaute sur l'adresse de l'entreprise ouvre google map à la bonne adresse</t>
+  </si>
+  <si>
+    <t>Navigation clavier</t>
+  </si>
+  <si>
+    <t>Ajouter une navigation grace au clavier avec Tab et Maj + Tab</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -432,13 +441,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,23 +473,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,7 +495,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -705,7 +729,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -715,7 +739,7 @@
     <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="98.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="113.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -759,9 +783,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="17" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -781,7 +805,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -799,7 +823,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -817,7 +841,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -827,7 +851,7 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -835,7 +859,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -845,13 +869,13 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
@@ -869,7 +893,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -879,15 +903,15 @@
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
@@ -897,11 +921,11 @@
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
@@ -919,7 +943,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
@@ -946,7 +970,7 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -964,7 +988,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -980,7 +1004,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>63</v>
       </c>
@@ -996,7 +1020,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>65</v>
       </c>
@@ -1012,92 +1036,103 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:26" s="13" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
+    <row r="21" spans="1:26" s="15" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="14"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="6"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="6"/>
@@ -2085,13 +2120,14 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="E6:E7"/>
@@ -2115,8 +2151,9 @@
     <hyperlink ref="F18" r:id="rId13" xr:uid="{BA75C060-509A-413A-B248-E2454E726CD9}"/>
     <hyperlink ref="F22" r:id="rId14" xr:uid="{719BD7BF-D2F8-4D58-A319-26855C3A3F58}"/>
     <hyperlink ref="F23" r:id="rId15" location="cr%C3%A9er_un_lien_avec_une_adresse_%C3%A9lectronique" xr:uid="{62CCAFD2-EDC0-446D-9B2B-DDE61F25C012}"/>
+    <hyperlink ref="F26" r:id="rId16" xr:uid="{5B1DC9AF-62E5-4373-BA39-20C4C7FE55AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
+  <pageSetup orientation="landscape" r:id="rId17"/>
 </worksheet>
 </file>